--- a/medicine/Pharmacie/Flécaïnide/Flécaïnide.xlsx
+++ b/medicine/Pharmacie/Flécaïnide/Flécaïnide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fl%C3%A9ca%C3%AFnide</t>
+          <t>Flécaïnide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La flécaïnide est un agent antiarythmique, utilisé en médecine pour supprimer certains troubles du rythme cardiaque.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fl%C3%A9ca%C3%AFnide</t>
+          <t>Flécaïnide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est utilisée dans la prévention des récidives de fibrillation atriale en l'absence d'insuffisance cardiaque, permettant de retarder la survenue d'une récidive[2]..
-Elle peut être utilisée ponctuellement pour réduire certains cas de fibrillation atriale paroxystique[3].
-Elle potentialiserait les effets du Modafinil [4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est utilisée dans la prévention des récidives de fibrillation atriale en l'absence d'insuffisance cardiaque, permettant de retarder la survenue d'une récidive..
+Elle peut être utilisée ponctuellement pour réduire certains cas de fibrillation atriale paroxystique.
+Elle potentialiserait les effets du Modafinil 
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fl%C3%A9ca%C3%AFnide</t>
+          <t>Flécaïnide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +561,14 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle peut majorer les troubles du rythme ventriculaire chez les patients ayant fait un infarctus du myocarde ou ayant une fraction d'éjection abaissée[5], constituant ce qu'on appelle un « effet proarythmogène ». Elle est donc contre-indiquée dans ces deux types d'atteintes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle peut majorer les troubles du rythme ventriculaire chez les patients ayant fait un infarctus du myocarde ou ayant une fraction d'éjection abaissée, constituant ce qu'on appelle un « effet proarythmogène ». Elle est donc contre-indiquée dans ces deux types d'atteintes.
 En cas de flutter auriculaire, elle peut ralentir suffisamment la fréquence des oreillettes pour qu'une conduction 1/1 se produise, entraînant une tachycardie très rapide et mal tolérée.
-Les effets extra-cardiaques les plus fréquents sont des vertiges ou des troubles visuels, présents dans près d'un tiers des cas mais qui n'imposent pas toujours l'arrêt du traitement[6].
-En cas de surdosage important, la flécaïnide entraîne des nausées suivis rapidement de troubles de la conduction cardiaque pouvant aboutir à un arrêt cardio-circulatoire ne répondant que peu aux mesures de réanimation[7].
+Les effets extra-cardiaques les plus fréquents sont des vertiges ou des troubles visuels, présents dans près d'un tiers des cas mais qui n'imposent pas toujours l'arrêt du traitement.
+En cas de surdosage important, la flécaïnide entraîne des nausées suivis rapidement de troubles de la conduction cardiaque pouvant aboutir à un arrêt cardio-circulatoire ne répondant que peu aux mesures de réanimation.
 </t>
         </is>
       </c>
